--- a/Scheduler/investment_company_announcement/2024Q1_investment_company_announcement.xlsx
+++ b/Scheduler/investment_company_announcement/2024Q1_investment_company_announcement.xlsx
@@ -31,7 +31,7 @@
     <t>20240331</t>
   </si>
   <si>
-    <t>728.1</t>
+    <t>743.8</t>
   </si>
   <si>
     <t>N</t>
@@ -40,355 +40,364 @@
     <t>DS투자증권</t>
   </si>
   <si>
-    <t>732.2</t>
+    <t>558.2</t>
   </si>
   <si>
     <t>IBK투자증권</t>
   </si>
   <si>
-    <t>651.5</t>
+    <t>821.4</t>
   </si>
   <si>
     <t>KB증권</t>
   </si>
   <si>
-    <t>643.7</t>
+    <t>647.3</t>
   </si>
   <si>
     <t>KR투자증권</t>
   </si>
   <si>
-    <t>134.5</t>
+    <t>654.1</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>551.3</t>
+    <t>543.1</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
-    <t>788.2</t>
+    <t>856.1</t>
   </si>
   <si>
     <t>UBS증권</t>
   </si>
   <si>
+    <t>114.1</t>
+  </si>
+  <si>
+    <t>골드만삭스증권</t>
+  </si>
+  <si>
+    <t>122.1</t>
+  </si>
+  <si>
+    <t>교보증권</t>
+  </si>
+  <si>
+    <t>763.3</t>
+  </si>
+  <si>
+    <t>나틱시스증권 서울지점</t>
+  </si>
+  <si>
+    <t>117.4</t>
+  </si>
+  <si>
+    <t>넥스트증권</t>
+  </si>
+  <si>
+    <t>137.7</t>
+  </si>
+  <si>
+    <t>노무라금융투자</t>
+  </si>
+  <si>
+    <t>555.9</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>다올투자증권</t>
+  </si>
+  <si>
+    <t>541.8</t>
+  </si>
+  <si>
+    <t>다이와증권캐피탈마켓코리아</t>
+  </si>
+  <si>
+    <t>175.6</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>402.8</t>
+  </si>
+  <si>
+    <t>도이치증권</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>리딩투자증권</t>
+  </si>
+  <si>
+    <t>140.8</t>
+  </si>
+  <si>
+    <t>맥쿼리증권</t>
+  </si>
+  <si>
+    <t>161.9</t>
+  </si>
+  <si>
+    <t>메리츠증권</t>
+  </si>
+  <si>
+    <t>839.6</t>
+  </si>
+  <si>
+    <t>메릴린치증권</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>모건스탠리증권</t>
+  </si>
+  <si>
+    <t>121.5</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>694.9</t>
+  </si>
+  <si>
+    <t>미즈호증권</t>
+  </si>
+  <si>
+    <t>115.8</t>
+  </si>
+  <si>
+    <t>부국증권</t>
+  </si>
+  <si>
+    <t>735.6</t>
+  </si>
+  <si>
+    <t>비엔케이투자증권</t>
+  </si>
+  <si>
+    <t>557.4</t>
+  </si>
+  <si>
+    <t>비엔피파리바증권</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>상상인증권</t>
+  </si>
+  <si>
+    <t>676.6</t>
+  </si>
+  <si>
+    <t>신영증권</t>
+  </si>
+  <si>
+    <t>661.6</t>
+  </si>
+  <si>
+    <t>신한투자증권</t>
+  </si>
+  <si>
+    <t>837.8</t>
+  </si>
+  <si>
+    <t>씨엘에스에이코리아증권</t>
+  </si>
+  <si>
+    <t>117.6</t>
+  </si>
+  <si>
+    <t>씨엠에스증권 한국</t>
+  </si>
+  <si>
+    <t>126.8</t>
+  </si>
+  <si>
+    <t>씨지에스 인터내셔널증권 홍콩 한국지점</t>
+  </si>
+  <si>
+    <t>110.6</t>
+  </si>
+  <si>
+    <t>씨티그룹글로벌마켓증권</t>
+  </si>
+  <si>
+    <t>120.3</t>
+  </si>
+  <si>
+    <t>아이엔지증권 서울지점</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>아이엠증권</t>
+  </si>
+  <si>
+    <t>855.9</t>
+  </si>
+  <si>
+    <t>엘에스증권</t>
+  </si>
+  <si>
+    <t>685.1</t>
+  </si>
+  <si>
+    <t>우리투자증권(구.포스증권)</t>
+  </si>
+  <si>
+    <t>115.6</t>
+  </si>
+  <si>
+    <t>유안타증권</t>
+  </si>
+  <si>
+    <t>803.9</t>
+  </si>
+  <si>
+    <t>유진투자증권</t>
+  </si>
+  <si>
+    <t>762.8</t>
+  </si>
+  <si>
+    <t>유화증권</t>
+  </si>
+  <si>
+    <t>140.3</t>
+  </si>
+  <si>
+    <t>제이피모간증권</t>
+  </si>
+  <si>
+    <t>114.9</t>
+  </si>
+  <si>
+    <t>카카오페이증권</t>
+  </si>
+  <si>
+    <t>156.4</t>
+  </si>
+  <si>
+    <t>케이아이디비채권중개</t>
+  </si>
+  <si>
+    <t>113.5</t>
+  </si>
+  <si>
+    <t>케이프투자증권</t>
+  </si>
+  <si>
+    <t>764.8</t>
+  </si>
+  <si>
+    <t>코리아에셋투자증권</t>
+  </si>
+  <si>
+    <t>300.5</t>
+  </si>
+  <si>
+    <t>크레디 아그리콜 아시아 증권 서울지점</t>
+  </si>
+  <si>
+    <t>116.4</t>
+  </si>
+  <si>
+    <t>크레디트스위스증권</t>
+  </si>
+  <si>
     <t>106.9</t>
   </si>
   <si>
-    <t>골드만삭스증권</t>
-  </si>
-  <si>
-    <t>120.5</t>
-  </si>
-  <si>
-    <t>교보증권</t>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>나틱시스증권 서울지점</t>
-  </si>
-  <si>
-    <t>123.8</t>
-  </si>
-  <si>
-    <t>넥스트증권</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>노무라금융투자</t>
-  </si>
-  <si>
-    <t>770.4</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>다올투자증권</t>
-  </si>
-  <si>
-    <t>585.5</t>
-  </si>
-  <si>
-    <t>다이와증권캐피탈마켓코리아</t>
-  </si>
-  <si>
-    <t>275.6</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>438.8</t>
-  </si>
-  <si>
-    <t>도이치증권</t>
-  </si>
-  <si>
-    <t>126.9</t>
-  </si>
-  <si>
-    <t>리딩투자증권</t>
-  </si>
-  <si>
-    <t>472.4</t>
-  </si>
-  <si>
-    <t>맥쿼리증권</t>
-  </si>
-  <si>
-    <t>156.3</t>
-  </si>
-  <si>
-    <t>메리츠증권</t>
-  </si>
-  <si>
-    <t>871</t>
-  </si>
-  <si>
-    <t>메릴린치증권</t>
-  </si>
-  <si>
-    <t>108.3</t>
-  </si>
-  <si>
-    <t>모건스탠리증권</t>
-  </si>
-  <si>
-    <t>112.2</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
-    <t>692.8</t>
-  </si>
-  <si>
-    <t>미즈호증권</t>
-  </si>
-  <si>
-    <t>113.9</t>
-  </si>
-  <si>
-    <t>부국증권</t>
-  </si>
-  <si>
-    <t>227.8</t>
-  </si>
-  <si>
-    <t>비엔케이투자증권</t>
-  </si>
-  <si>
-    <t>426.5</t>
-  </si>
-  <si>
-    <t>비엔피파리바증권</t>
-  </si>
-  <si>
-    <t>110.7</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>상상인증권</t>
-  </si>
-  <si>
-    <t>878.5</t>
-  </si>
-  <si>
-    <t>신영증권</t>
-  </si>
-  <si>
-    <t>720.3</t>
-  </si>
-  <si>
-    <t>신한투자증권</t>
-  </si>
-  <si>
-    <t>830.2</t>
-  </si>
-  <si>
-    <t>씨엘에스에이코리아증권</t>
-  </si>
-  <si>
-    <t>115.8</t>
-  </si>
-  <si>
-    <t>씨엠에스증권 한국</t>
-  </si>
-  <si>
-    <t>128.9</t>
-  </si>
-  <si>
-    <t>씨지에스 인터내셔널증권 홍콩 한국지점</t>
-  </si>
-  <si>
-    <t>112.3</t>
-  </si>
-  <si>
-    <t>씨티그룹글로벌마켓증권</t>
-  </si>
-  <si>
-    <t>113.7</t>
-  </si>
-  <si>
-    <t>아이엔지증권 서울지점</t>
-  </si>
-  <si>
-    <t>101.2</t>
-  </si>
-  <si>
-    <t>아이엠증권</t>
-  </si>
-  <si>
-    <t>757.6</t>
-  </si>
-  <si>
-    <t>엘에스증권</t>
-  </si>
-  <si>
-    <t>600.1</t>
-  </si>
-  <si>
-    <t>우리투자증권(구.포스증권)</t>
-  </si>
-  <si>
-    <t>109.3</t>
-  </si>
-  <si>
-    <t>유안타증권</t>
-  </si>
-  <si>
-    <t>864.8</t>
-  </si>
-  <si>
-    <t>유진투자증권</t>
-  </si>
-  <si>
-    <t>731.2</t>
-  </si>
-  <si>
-    <t>유화증권</t>
-  </si>
-  <si>
-    <t>138.8</t>
-  </si>
-  <si>
-    <t>제이피모간증권</t>
-  </si>
-  <si>
-    <t>113.8</t>
-  </si>
-  <si>
-    <t>카카오페이증권</t>
-  </si>
-  <si>
-    <t>135.2</t>
-  </si>
-  <si>
-    <t>케이아이디비채권중개</t>
-  </si>
-  <si>
-    <t>케이프투자증권</t>
-  </si>
-  <si>
-    <t>715.5</t>
-  </si>
-  <si>
-    <t>코리아에셋투자증권</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>크레디 아그리콜 아시아 증권 서울지점</t>
-  </si>
-  <si>
-    <t>105.8</t>
-  </si>
-  <si>
-    <t>크레디트스위스증권</t>
-  </si>
-  <si>
     <t>키움증권</t>
   </si>
   <si>
-    <t>733.6</t>
+    <t>672.3</t>
   </si>
   <si>
     <t>토스증권</t>
   </si>
   <si>
-    <t>410.4</t>
+    <t>473.6</t>
   </si>
   <si>
     <t>하나증권</t>
   </si>
   <si>
-    <t>719.1</t>
+    <t>727.3</t>
   </si>
   <si>
     <t>한국스탠다드차타드증권</t>
   </si>
   <si>
+    <t>104.1</t>
+  </si>
+  <si>
     <t>한국아이엠씨증권</t>
   </si>
   <si>
-    <t>118.2</t>
+    <t>117.1</t>
   </si>
   <si>
     <t>한국에스지증권</t>
   </si>
   <si>
-    <t>308.8</t>
+    <t>401.5</t>
   </si>
   <si>
     <t>한국투자증권</t>
   </si>
   <si>
-    <t>660.2</t>
+    <t>628.7</t>
   </si>
   <si>
     <t>한양증권</t>
   </si>
   <si>
-    <t>338.9</t>
+    <t>698.1</t>
   </si>
   <si>
     <t>한화투자증권</t>
   </si>
   <si>
-    <t>677.1</t>
+    <t>746.2</t>
   </si>
   <si>
     <t>현대차증권</t>
   </si>
   <si>
-    <t>858.7</t>
+    <t>906.5</t>
   </si>
   <si>
     <t>홍콩상하이증권</t>
   </si>
   <si>
-    <t>128.6</t>
+    <t>111.5</t>
   </si>
   <si>
     <t>흥국증권</t>
   </si>
   <si>
-    <t>233.8</t>
+    <t>498.8</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1084,13 +1093,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1098,13 +1107,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
@@ -1112,13 +1121,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>32</v>
@@ -1126,13 +1135,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1140,13 +1149,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1154,13 +1163,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1168,13 +1177,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
@@ -1182,13 +1191,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1196,13 +1205,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1210,13 +1219,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>32</v>
@@ -1224,13 +1233,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1238,13 +1247,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1252,13 +1261,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1266,13 +1275,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1280,13 +1289,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1294,13 +1303,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
